--- a/2_Convection/Embedded_Qs/convection.xlsx
+++ b/2_Convection/Embedded_Qs/convection.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\My Drive\Teaching\Engr_321\Notebooks\2_Convection\Embedded_Qs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE46FDCB-D5A7-482F-BC14-9B7AEF2D53DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{585EAD7C-13E9-4DFF-A826-7A9AB70368F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8640" yWindow="1800" windowWidth="18885" windowHeight="13260" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1155" yWindow="1455" windowWidth="13590" windowHeight="13260" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="0_" sheetId="6" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="5_" sheetId="3" r:id="rId6"/>
     <sheet name="6_" sheetId="5" r:id="rId7"/>
     <sheet name="7_" sheetId="10" r:id="rId8"/>
+    <sheet name="8_" sheetId="11" r:id="rId9"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="66">
   <si>
     <t>Correct</t>
   </si>
@@ -215,6 +216,21 @@
   </si>
   <si>
     <t>If the volume of the thermal conductivity is high, it will tend to reach equilibrium quickly: any thermal energy that leaves the sphere can quickly be replaced by energy in other parts of the sphere</t>
+  </si>
+  <si>
+    <t>If the starting temperature of the steel ball is 100 degrees C, and the liquid is held constant at 0 degrees C, what would we expect the plot of the temperature over time to look like?  Which plot seems most likely?</t>
+  </si>
+  <si>
+    <t>Linear (100 - 100t)</t>
+  </si>
+  <si>
+    <t>Polynomial (100 - 100t^2)</t>
+  </si>
+  <si>
+    <t>Exponential (100e^(-Ct)</t>
+  </si>
+  <si>
+    <t>We'd expect that the sphere would cool quickly at first, when the temperature difference was larger, and then cool more slowley as its temperature approached that of the fluid.  This would produce an exponential-like curve (with a negative exponent).</t>
   </si>
 </sst>
 </file>
@@ -1085,8 +1101,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38739B15-E3CC-44F3-82FB-A2D95A517DCD}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F13" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1185,4 +1201,105 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEB87290-4623-48D9-B102-3A9B871860CF}">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="29.85546875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="33.7109375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="26" style="4" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="120" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+    </row>
+    <row r="4" spans="1:4" ht="120" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D4" s="5"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/2_Convection/Embedded_Qs/convection.xlsx
+++ b/2_Convection/Embedded_Qs/convection.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\My Drive\Teaching\Engr_321\Notebooks\2_Convection\Embedded_Qs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{585EAD7C-13E9-4DFF-A826-7A9AB70368F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF89D206-AE0D-4DF5-BC21-A6DAC1EB314F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1155" yWindow="1455" windowWidth="13590" windowHeight="13260" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1155" yWindow="1455" windowWidth="17700" windowHeight="13260" firstSheet="1" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="0_" sheetId="6" r:id="rId1"/>
@@ -22,6 +22,8 @@
     <sheet name="6_" sheetId="5" r:id="rId7"/>
     <sheet name="7_" sheetId="10" r:id="rId8"/>
     <sheet name="8_" sheetId="11" r:id="rId9"/>
+    <sheet name="9_" sheetId="12" r:id="rId10"/>
+    <sheet name="10_" sheetId="13" r:id="rId11"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="72">
   <si>
     <t>Correct</t>
   </si>
@@ -218,9 +220,6 @@
     <t>If the volume of the thermal conductivity is high, it will tend to reach equilibrium quickly: any thermal energy that leaves the sphere can quickly be replaced by energy in other parts of the sphere</t>
   </si>
   <si>
-    <t>If the starting temperature of the steel ball is 100 degrees C, and the liquid is held constant at 0 degrees C, what would we expect the plot of the temperature over time to look like?  Which plot seems most likely?</t>
-  </si>
-  <si>
     <t>Linear (100 - 100t)</t>
   </si>
   <si>
@@ -231,6 +230,27 @@
   </si>
   <si>
     <t>We'd expect that the sphere would cool quickly at first, when the temperature difference was larger, and then cool more slowley as its temperature approached that of the fluid.  This would produce an exponential-like curve (with a negative exponent).</t>
+  </si>
+  <si>
+    <t>If the starting temperature of the steel ball is 100 degrees C, and the liquid is held constant at 0 degrees C, what would we expect the plot of the temperature over time to look like?  Of the plots in the image above seems the most likely portrait of the temperature behavior of the sphere?</t>
+  </si>
+  <si>
+    <t>Look at the equation for temperature that we just derived.  What is the temperature of the object at time 't = 0', according to the equation?</t>
+  </si>
+  <si>
+    <t>T_infinity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T_i </t>
+  </si>
+  <si>
+    <t>Just as you'd expect.  E^0 is 1, and this means the 2 'T_infinity' terms cancel out, leaving only 'T_i'</t>
+  </si>
+  <si>
+    <t>Look at the equation for temperature that we just derived.  What is the temperature of the object at time 't = infinity', according to the equation?</t>
+  </si>
+  <si>
+    <t>e^(- infinity) = 0, so the only term left is 'T_infinity'.  This makes sense physically: as the steel sphere cools, it will slowly approach the value of the liquid, 'T_infinity'</t>
   </si>
 </sst>
 </file>
@@ -693,6 +713,222 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD4CAB69-54E7-46DA-8DB2-95D6CDF4C669}">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="29.85546875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="33.7109375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="26" style="4" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="5">
+        <v>0</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+    </row>
+    <row r="5" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D5" s="5"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74FC581F-CBA0-42E0-A286-1C5F603B38C3}">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="29.85546875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="33.7109375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="26" style="4" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="5">
+        <v>0</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+    </row>
+    <row r="4" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D4" s="5"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C6"/>
@@ -1207,8 +1443,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEB87290-4623-48D9-B102-3A9B871860CF}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F14" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1220,9 +1456,9 @@
     <col min="5" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="120" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="150" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>58</v>
@@ -1232,7 +1468,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>1</v>
@@ -1242,7 +1478,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>1</v>
@@ -1252,13 +1488,13 @@
     </row>
     <row r="4" spans="1:4" ht="120" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D4" s="5"/>
     </row>

--- a/2_Convection/Embedded_Qs/convection.xlsx
+++ b/2_Convection/Embedded_Qs/convection.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\My Drive\Teaching\Engr_321\Notebooks\2_Convection\Embedded_Qs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF89D206-AE0D-4DF5-BC21-A6DAC1EB314F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AA3A054-3DA6-403A-81EB-C7B88FAE8380}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1155" yWindow="1455" windowWidth="17700" windowHeight="13260" firstSheet="1" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1155" yWindow="1455" windowWidth="17700" windowHeight="13260" firstSheet="2" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="0_" sheetId="6" r:id="rId1"/>
@@ -24,6 +24,9 @@
     <sheet name="8_" sheetId="11" r:id="rId9"/>
     <sheet name="9_" sheetId="12" r:id="rId10"/>
     <sheet name="10_" sheetId="13" r:id="rId11"/>
+    <sheet name="11_" sheetId="14" r:id="rId12"/>
+    <sheet name="12_" sheetId="15" r:id="rId13"/>
+    <sheet name="13_" sheetId="16" r:id="rId14"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -35,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="85">
   <si>
     <t>Correct</t>
   </si>
@@ -251,6 +254,45 @@
   </si>
   <si>
     <t>e^(- infinity) = 0, so the only term left is 'T_infinity'.  This makes sense physically: as the steel sphere cools, it will slowly approach the value of the liquid, 'T_infinity'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If the time constant for lumped capacitance problem is 40 seconds, approximately how much of it temperature difference has an object lost after 100 seconds? </t>
+  </si>
+  <si>
+    <t>2.5 time constants have passed, so the object has lost somewhere between 87% and 95% of the temperature difference.</t>
+  </si>
+  <si>
+    <t>leeway</t>
+  </si>
+  <si>
+    <t>A 200 degree copper sphere is dropped in a 40 degree liquid.  Assuming it can be modeled as lumped capacitance, what is its approximate temperature after 6 minutes if its time constant is 2 minutes? Enter answer in degrees.</t>
+  </si>
+  <si>
+    <t>Figure out how many time constants have passed</t>
+  </si>
+  <si>
+    <t>Find the percentage of the difference that the object will have lost in that time period</t>
+  </si>
+  <si>
+    <t>Put tau and time into the temperature equation if you cannot solve it by observation</t>
+  </si>
+  <si>
+    <t>The Biot numbertells us whether lumped capacitance is a fair assumption for a given situation.  Which situation is the ideal lumped capacitance problem?</t>
+  </si>
+  <si>
+    <t>Fast conduction, fast convection</t>
+  </si>
+  <si>
+    <t>Fast conduction, slow convection</t>
+  </si>
+  <si>
+    <t>Slow conduction, fast convection</t>
+  </si>
+  <si>
+    <t>Slow conduction, slow convection</t>
+  </si>
+  <si>
+    <t>In this situation, the thermal energy has plenty of time to move through the object and keep the temperature uniform, both because heat moves through the solid quickly and because heat is not leaving the solid very fast</t>
   </si>
 </sst>
 </file>
@@ -304,7 +346,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -319,6 +361,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -825,8 +870,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74FC581F-CBA0-42E0-A286-1C5F603B38C3}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H15" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -897,6 +942,314 @@
       <c r="B6" s="5" t="s">
         <v>1</v>
       </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AB24E19-D314-4FE0-BB4E-2D0CC9BBFD5C}">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="29.85546875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="33.7109375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="26" style="4" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
+        <v>0.63</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
+        <v>0.87</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+    </row>
+    <row r="7" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A7" s="6">
+        <v>0.92</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D7" s="5"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3CFB20C-EE48-4A87-8D4A-2448EC3CB8AC}">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="29.85546875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="33.7109375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="26" style="4" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="120" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="5">
+        <v>48</v>
+      </c>
+      <c r="B2" s="5">
+        <v>2</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+    </row>
+    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D3" s="5"/>
+    </row>
+    <row r="4" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D4" s="5"/>
+    </row>
+    <row r="5" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D5" s="5"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8739869-C1D6-4166-8D16-62BF2C5BBFF1}">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="29.85546875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="33.7109375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="26" style="4" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+    </row>
+    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+    </row>
+    <row r="3" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D3" s="5"/>
+    </row>
+    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+    </row>
+    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
     </row>
